--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H2">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I2">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J2">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.015232333333334</v>
+        <v>9.901044000000001</v>
       </c>
       <c r="N2">
-        <v>15.045697</v>
+        <v>29.703132</v>
       </c>
       <c r="O2">
-        <v>0.2232512241152976</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="P2">
-        <v>0.2232512241152977</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="Q2">
-        <v>253.9546679798182</v>
+        <v>516.2227409943721</v>
       </c>
       <c r="R2">
-        <v>2285.592011818364</v>
+        <v>4646.004668949347</v>
       </c>
       <c r="S2">
-        <v>0.044832154455344</v>
+        <v>0.0690134709021198</v>
       </c>
       <c r="T2">
-        <v>0.044832154455344</v>
+        <v>0.0690134709021198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H3">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I3">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J3">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>23.914122</v>
       </c>
       <c r="O3">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="P3">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="Q3">
-        <v>403.6438399988293</v>
+        <v>415.613195514662</v>
       </c>
       <c r="R3">
-        <v>3632.794559989464</v>
+        <v>3740.518759631958</v>
       </c>
       <c r="S3">
-        <v>0.0712576899008361</v>
+        <v>0.05556304846225452</v>
       </c>
       <c r="T3">
-        <v>0.0712576899008361</v>
+        <v>0.05556304846225451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H4">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I4">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J4">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.96172</v>
+        <v>3.206223</v>
       </c>
       <c r="N4">
-        <v>8.885160000000001</v>
+        <v>9.618669000000001</v>
       </c>
       <c r="O4">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="P4">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="Q4">
-        <v>149.97164024688</v>
+        <v>167.166737699499</v>
       </c>
       <c r="R4">
-        <v>1349.74476222192</v>
+        <v>1504.500639295491</v>
       </c>
       <c r="S4">
-        <v>0.02647540127123684</v>
+        <v>0.02234840868460005</v>
       </c>
       <c r="T4">
-        <v>0.02647540127123684</v>
+        <v>0.02234840868460005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.63667066666667</v>
+        <v>52.138213</v>
       </c>
       <c r="H5">
-        <v>151.910012</v>
+        <v>156.414639</v>
       </c>
       <c r="I5">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516424</v>
       </c>
       <c r="J5">
-        <v>0.20081482031288</v>
+        <v>0.2220849502516423</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.516197000000001</v>
+        <v>10.78286133333333</v>
       </c>
       <c r="N5">
-        <v>19.548591</v>
+        <v>32.348584</v>
       </c>
       <c r="O5">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="P5">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="Q5">
-        <v>329.9585214881214</v>
+        <v>562.1991209467974</v>
       </c>
       <c r="R5">
-        <v>2969.626693393092</v>
+        <v>5059.792088521176</v>
       </c>
       <c r="S5">
-        <v>0.05824957468546307</v>
+        <v>0.07516002220266801</v>
       </c>
       <c r="T5">
-        <v>0.05824957468546307</v>
+        <v>0.07516002220266799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>201.972</v>
       </c>
       <c r="I6">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J6">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.015232333333334</v>
+        <v>9.901044000000001</v>
       </c>
       <c r="N6">
-        <v>15.045697</v>
+        <v>29.703132</v>
       </c>
       <c r="O6">
-        <v>0.2232512241152976</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="P6">
-        <v>0.2232512241152977</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="Q6">
-        <v>337.6455016093333</v>
+        <v>666.5778862560001</v>
       </c>
       <c r="R6">
-        <v>3038.809514484</v>
+        <v>5999.200976304001</v>
       </c>
       <c r="S6">
-        <v>0.05960660380735628</v>
+        <v>0.08911434910541167</v>
       </c>
       <c r="T6">
-        <v>0.05960660380735629</v>
+        <v>0.08911434910541167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>201.972</v>
       </c>
       <c r="I7">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J7">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>23.914122</v>
       </c>
       <c r="O7">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="P7">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="Q7">
         <v>536.664783176</v>
       </c>
       <c r="R7">
-        <v>4829.983048583999</v>
+        <v>4829.983048584</v>
       </c>
       <c r="S7">
-        <v>0.09474068203385876</v>
+        <v>0.07174635376691609</v>
       </c>
       <c r="T7">
-        <v>0.09474068203385876</v>
+        <v>0.07174635376691609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>201.972</v>
       </c>
       <c r="I8">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J8">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.96172</v>
+        <v>3.206223</v>
       </c>
       <c r="N8">
-        <v>8.885160000000001</v>
+        <v>9.618669000000001</v>
       </c>
       <c r="O8">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="P8">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="Q8">
-        <v>199.39483728</v>
+        <v>215.855757252</v>
       </c>
       <c r="R8">
-        <v>1794.55353552</v>
+        <v>1942.701815268</v>
       </c>
       <c r="S8">
-        <v>0.03520037734941557</v>
+        <v>0.02885761094807783</v>
       </c>
       <c r="T8">
-        <v>0.03520037734941558</v>
+        <v>0.02885761094807783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>201.972</v>
       </c>
       <c r="I9">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="J9">
-        <v>0.2669934019110801</v>
+        <v>0.2867694600645705</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.516197000000001</v>
+        <v>10.78286133333333</v>
       </c>
       <c r="N9">
-        <v>19.548591</v>
+        <v>32.348584</v>
       </c>
       <c r="O9">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="P9">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="Q9">
-        <v>438.696446828</v>
+        <v>725.9453564053334</v>
       </c>
       <c r="R9">
-        <v>3948.268021452</v>
+        <v>6533.508207648001</v>
       </c>
       <c r="S9">
-        <v>0.07744573872044951</v>
+        <v>0.09705114624416493</v>
       </c>
       <c r="T9">
-        <v>0.07744573872044951</v>
+        <v>0.0970511462441649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H10">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I10">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J10">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.015232333333334</v>
+        <v>9.901044000000001</v>
       </c>
       <c r="N10">
-        <v>15.045697</v>
+        <v>29.703132</v>
       </c>
       <c r="O10">
-        <v>0.2232512241152976</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="P10">
-        <v>0.2232512241152977</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="Q10">
-        <v>313.3085417232531</v>
+        <v>643.5657708797161</v>
       </c>
       <c r="R10">
-        <v>2819.776875509278</v>
+        <v>5792.091937917444</v>
       </c>
       <c r="S10">
-        <v>0.05531025299299375</v>
+        <v>0.08603787488450031</v>
       </c>
       <c r="T10">
-        <v>0.05531025299299375</v>
+        <v>0.08603787488450031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H11">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I11">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J11">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>23.914122</v>
       </c>
       <c r="O11">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="P11">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="Q11">
-        <v>497.9828246183587</v>
+        <v>518.137628040086</v>
       </c>
       <c r="R11">
-        <v>4481.845421565228</v>
+        <v>4663.238652360774</v>
       </c>
       <c r="S11">
-        <v>0.08791192178902164</v>
+        <v>0.06926947086282605</v>
       </c>
       <c r="T11">
-        <v>0.08791192178902164</v>
+        <v>0.06926947086282605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H12">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I12">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J12">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96172</v>
+        <v>3.206223</v>
       </c>
       <c r="N12">
-        <v>8.885160000000001</v>
+        <v>9.618669000000001</v>
       </c>
       <c r="O12">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="P12">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="Q12">
-        <v>185.02276913976</v>
+        <v>208.403818486947</v>
       </c>
       <c r="R12">
-        <v>1665.20492225784</v>
+        <v>1875.634366382523</v>
       </c>
       <c r="S12">
-        <v>0.03266318918181247</v>
+        <v>0.02786136626862856</v>
       </c>
       <c r="T12">
-        <v>0.03266318918181248</v>
+        <v>0.02786136626862856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.47139133333334</v>
+        <v>64.99978900000001</v>
       </c>
       <c r="H13">
-        <v>187.414174</v>
+        <v>194.999367</v>
       </c>
       <c r="I13">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="J13">
-        <v>0.2477489349148154</v>
+        <v>0.2768693838132169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.516197000000001</v>
+        <v>10.78286133333333</v>
       </c>
       <c r="N13">
-        <v>19.548591</v>
+        <v>32.348584</v>
       </c>
       <c r="O13">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="P13">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="Q13">
-        <v>407.0758927920928</v>
+        <v>700.8837114829255</v>
       </c>
       <c r="R13">
-        <v>3663.683035128834</v>
+        <v>6307.953403346329</v>
       </c>
       <c r="S13">
-        <v>0.07186357095098757</v>
+        <v>0.09370067179726195</v>
       </c>
       <c r="T13">
-        <v>0.07186357095098757</v>
+        <v>0.09370067179726194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H14">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I14">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J14">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.015232333333334</v>
+        <v>9.901044000000001</v>
       </c>
       <c r="N14">
-        <v>15.045697</v>
+        <v>29.703132</v>
       </c>
       <c r="O14">
-        <v>0.2232512241152976</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="P14">
-        <v>0.2232512241152977</v>
+        <v>0.3107525783441034</v>
       </c>
       <c r="Q14">
-        <v>359.712433601818</v>
+        <v>498.071797296684</v>
       </c>
       <c r="R14">
-        <v>3237.411902416362</v>
+        <v>4482.646175670156</v>
       </c>
       <c r="S14">
-        <v>0.0635022128596036</v>
+        <v>0.06658688345207164</v>
       </c>
       <c r="T14">
-        <v>0.06350221285960361</v>
+        <v>0.06658688345207164</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H15">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I15">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J15">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>23.914122</v>
       </c>
       <c r="O15">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="P15">
-        <v>0.3548427839629211</v>
+        <v>0.2501882653430435</v>
       </c>
       <c r="Q15">
-        <v>571.738685291268</v>
+        <v>400.9997910426473</v>
       </c>
       <c r="R15">
-        <v>5145.648167621412</v>
+        <v>3608.998119383826</v>
       </c>
       <c r="S15">
-        <v>0.1009324902392046</v>
+        <v>0.05360939225104687</v>
       </c>
       <c r="T15">
-        <v>0.1009324902392046</v>
+        <v>0.05360939225104687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H16">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I16">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J16">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.96172</v>
+        <v>3.206223</v>
       </c>
       <c r="N16">
-        <v>8.885160000000001</v>
+        <v>9.618669000000001</v>
       </c>
       <c r="O16">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="P16">
-        <v>0.1318398773058023</v>
+        <v>0.1006300006338893</v>
       </c>
       <c r="Q16">
-        <v>212.42635196904</v>
+        <v>161.288976409353</v>
       </c>
       <c r="R16">
-        <v>1911.83716772136</v>
+        <v>1451.600787684177</v>
       </c>
       <c r="S16">
-        <v>0.03750090950333743</v>
+        <v>0.02156261473258289</v>
       </c>
       <c r="T16">
-        <v>0.03750090950333745</v>
+        <v>0.02156261473258289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.72398199999999</v>
+        <v>50.30497766666667</v>
       </c>
       <c r="H17">
-        <v>215.171946</v>
+        <v>150.914933</v>
       </c>
       <c r="I17">
-        <v>0.2844428428612244</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="J17">
-        <v>0.2844428428612245</v>
+        <v>0.2142762058705703</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.516197000000001</v>
+        <v>10.78286133333333</v>
       </c>
       <c r="N17">
-        <v>19.548591</v>
+        <v>32.348584</v>
       </c>
       <c r="O17">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="P17">
-        <v>0.290066114615979</v>
+        <v>0.3384291556789638</v>
       </c>
       <c r="Q17">
-        <v>467.367596336454</v>
+        <v>542.4315985560969</v>
       </c>
       <c r="R17">
-        <v>4206.308367028087</v>
+        <v>4881.884387004872</v>
       </c>
       <c r="S17">
-        <v>0.08250723025907881</v>
+        <v>0.07251731543486895</v>
       </c>
       <c r="T17">
-        <v>0.08250723025907883</v>
+        <v>0.07251731543486893</v>
       </c>
     </row>
   </sheetData>
